--- a/Day29-内存管理/内存分配和释放.xlsx
+++ b/Day29-内存管理/内存分配和释放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="20420" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="20420" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>int *p;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,83 @@
   </si>
   <si>
     <t>防止野指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存使用步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、申请内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、检查是否申请到内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、使用内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、释放内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、打扫内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;stdlib.h&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef struct{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  int x;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  int y;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}Point;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if(p == NULL){//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提示    //终止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>free(p);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p = NULL;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point *  p = (Point *)malloc(sizeof(Point));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -707,7 +784,9 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -715,7 +794,9 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -723,12 +804,64 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
